--- a/data_excel/11.xlsx
+++ b/data_excel/11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林鈺馨\Desktop\(1-100)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0BD94-8F7A-41C1-88FF-0E68DBA52732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="8292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>烏鴉</t>
   </si>
@@ -131,14 +130,18 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,12 +180,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -477,16 +503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -546,12 +572,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -566,7 +592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -586,7 +612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -603,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -614,7 +640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -625,7 +651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -636,7 +662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -647,7 +673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -658,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -669,7 +695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -680,7 +706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -691,7 +717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -702,7 +728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -713,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
